--- a/data/trans_dic/P15B_3_R-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P15B_3_R-Habitat-trans_dic.xlsx
@@ -729,17 +729,17 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>8,47; 46,34</t>
+          <t>8,48; 48,92</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 67,63</t>
+          <t>0,0; 71,45</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 84,11</t>
+          <t>0,0; 85,68</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -764,22 +764,22 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 87,5</t>
+          <t>0,0; 87,44</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>6,51; 35,79</t>
+          <t>6,66; 36,75</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 47,7</t>
+          <t>0,0; 48,33</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 55,5</t>
+          <t>0,0; 54,59</t>
         </is>
       </c>
     </row>
@@ -864,22 +864,22 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>18,37; 61,45</t>
+          <t>17,46; 60,87</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>13,88; 41,26</t>
+          <t>14,13; 41,35</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>2,94; 25,94</t>
+          <t>2,89; 25,53</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>14,67; 51,73</t>
+          <t>14,54; 51,27</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -889,37 +889,37 @@
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 18,08</t>
+          <t>0,0; 22,39</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 13,18</t>
+          <t>0,0; 13,62</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>2,58; 15,47</t>
+          <t>2,26; 14,65</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>9,47; 40,94</t>
+          <t>10,28; 42,29</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>8,89; 24,68</t>
+          <t>8,5; 24,01</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>2,59; 15,07</t>
+          <t>3,58; 15,05</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>10,2; 31,44</t>
+          <t>9,79; 31,9</t>
         </is>
       </c>
     </row>
@@ -1004,32 +1004,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>20,15; 50,81</t>
+          <t>21,17; 51,61</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>12,25; 30,74</t>
+          <t>12,45; 31,54</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>10,57; 30,8</t>
+          <t>10,12; 31,6</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>12,67; 36,71</t>
+          <t>13,39; 35,89</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 24,98</t>
+          <t>0,0; 24,13</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>1,29; 11,65</t>
+          <t>1,28; 11,0</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
@@ -1039,27 +1039,27 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>2,12; 20,78</t>
+          <t>2,0; 19,41</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>13,71; 34,68</t>
+          <t>14,88; 35,17</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>8,26; 18,71</t>
+          <t>8,19; 18,61</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>5,56; 17,59</t>
+          <t>5,88; 18,52</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>9,48; 24,38</t>
+          <t>9,63; 24,34</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>25,97; 65,94</t>
+          <t>25,12; 66,4</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>14,59; 36,35</t>
+          <t>14,2; 36,34</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>5,56; 33,09</t>
+          <t>4,64; 34,34</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>9,73; 42,55</t>
+          <t>9,79; 42,99</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>11,75; 49,11</t>
+          <t>12,03; 51,61</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>3,02; 22,51</t>
+          <t>2,28; 21,79</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>6,14; 33,4</t>
+          <t>6,31; 36,57</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>0,91; 9,48</t>
+          <t>0,96; 10,84</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>23,32; 51,12</t>
+          <t>22,65; 51,06</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>10,2; 24,79</t>
+          <t>10,38; 25,44</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>8,61; 28,95</t>
+          <t>9,02; 27,84</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>4,93; 20,36</t>
+          <t>5,4; 20,66</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1284,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>2,64; 24,28</t>
+          <t>2,62; 24,11</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>11,63; 28,11</t>
+          <t>11,33; 30,01</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>4,82; 21,89</t>
+          <t>4,8; 20,84</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>9,24; 31,7</t>
+          <t>9,52; 32,29</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 22,87</t>
+          <t>0,0; 20,53</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 10,24</t>
+          <t>0,0; 9,54</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>3,29; 20,13</t>
+          <t>3,49; 19,68</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>5,45; 19,63</t>
+          <t>5,58; 19,18</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>2,95; 16,44</t>
+          <t>3,09; 18,4</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>7,2; 17,99</t>
+          <t>7,39; 17,98</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>5,64; 17,35</t>
+          <t>6,3; 17,9</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>8,93; 20,88</t>
+          <t>8,31; 20,73</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1424,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>24,28; 42,1</t>
+          <t>23,47; 41,09</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>17,04; 26,7</t>
+          <t>16,88; 26,08</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>10,14; 20,34</t>
+          <t>10,64; 20,69</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>17,64; 31,44</t>
+          <t>17,13; 30,42</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>4,76; 18,12</t>
+          <t>5,19; 18,26</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>2,74; 9,02</t>
+          <t>2,68; 8,95</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>4,23; 11,91</t>
+          <t>4,24; 11,97</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>4,81; 11,94</t>
+          <t>4,71; 12,0</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>17,34; 28,92</t>
+          <t>16,92; 28,33</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>11,15; 17,12</t>
+          <t>11,17; 17,06</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>8,42; 15,08</t>
+          <t>8,15; 14,95</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>11,97; 19,43</t>
+          <t>11,46; 19,48</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P15B_3_R-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P15B_3_R-Habitat-trans_dic.xlsx
@@ -578,7 +578,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -598,7 +598,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -618,7 +618,7 @@
       </c>
       <c r="M2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="N2" s="3" t="inlineStr">
@@ -646,7 +646,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>&lt;2.000hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -729,12 +729,12 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>8,48; 48,92</t>
+          <t>8,79; 48,36</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 71,45</t>
+          <t>0,0; 68,73</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -754,7 +754,7 @@
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 66,81</t>
+          <t>0,0; 69,92</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -764,17 +764,17 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 87,44</t>
+          <t>0,0; 88,83</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>6,66; 36,75</t>
+          <t>6,44; 35,47</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 48,33</t>
+          <t>0,0; 48,01</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
@@ -786,7 +786,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2/10</t>
+          <t>2-10.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -864,17 +864,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>17,46; 60,87</t>
+          <t>16,52; 60,96</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>14,13; 41,35</t>
+          <t>13,7; 41,61</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>2,89; 25,53</t>
+          <t>2,96; 26,18</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -889,12 +889,12 @@
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 22,39</t>
+          <t>0,0; 19,49</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 13,62</t>
+          <t>0,0; 12,92</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -904,17 +904,17 @@
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>10,28; 42,29</t>
+          <t>9,71; 38,55</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>8,5; 24,01</t>
+          <t>8,67; 23,25</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>3,58; 15,05</t>
+          <t>2,53; 14,74</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
@@ -926,7 +926,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -1004,17 +1004,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>21,17; 51,61</t>
+          <t>21,7; 52,68</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>12,45; 31,54</t>
+          <t>11,85; 30,98</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>10,12; 31,6</t>
+          <t>11,12; 32,54</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -1024,12 +1024,12 @@
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 24,13</t>
+          <t>0,0; 25,62</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>1,28; 11,0</t>
+          <t>1,3; 10,42</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
@@ -1044,17 +1044,17 @@
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>14,88; 35,17</t>
+          <t>14,01; 35,05</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>8,19; 18,61</t>
+          <t>7,84; 18,43</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>5,88; 18,52</t>
+          <t>5,51; 17,33</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
@@ -1066,7 +1066,7 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>&gt;50.000hab</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1144,17 +1144,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>25,12; 66,4</t>
+          <t>24,58; 64,68</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>14,2; 36,34</t>
+          <t>14,24; 36,63</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>4,64; 34,34</t>
+          <t>5,65; 31,73</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -1164,17 +1164,17 @@
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>12,03; 51,61</t>
+          <t>11,82; 48,45</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>2,28; 21,79</t>
+          <t>3,43; 22,08</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>6,31; 36,57</t>
+          <t>6,06; 33,12</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -1184,17 +1184,17 @@
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>22,65; 51,06</t>
+          <t>22,3; 49,06</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>10,38; 25,44</t>
+          <t>10,46; 24,43</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>9,02; 27,84</t>
+          <t>8,87; 28,38</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
@@ -1284,17 +1284,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>2,62; 24,11</t>
+          <t>2,67; 23,39</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>11,33; 30,01</t>
+          <t>11,67; 29,14</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>4,8; 20,84</t>
+          <t>5,06; 21,79</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
@@ -1304,17 +1304,17 @@
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 20,53</t>
+          <t>0,0; 22,34</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 9,54</t>
+          <t>0,0; 9,86</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>3,49; 19,68</t>
+          <t>4,76; 20,09</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
@@ -1324,17 +1324,17 @@
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>3,09; 18,4</t>
+          <t>2,96; 17,34</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>7,39; 17,98</t>
+          <t>7,01; 17,5</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>6,3; 17,9</t>
+          <t>6,22; 17,42</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
@@ -1424,17 +1424,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>23,47; 41,09</t>
+          <t>23,37; 40,62</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>16,88; 26,08</t>
+          <t>16,64; 26,65</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>10,64; 20,69</t>
+          <t>10,24; 20,6</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
@@ -1444,17 +1444,17 @@
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>5,19; 18,26</t>
+          <t>5,08; 17,85</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>2,68; 8,95</t>
+          <t>2,9; 9,61</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>4,24; 11,97</t>
+          <t>4,5; 12,28</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
@@ -1464,17 +1464,17 @@
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>16,92; 28,33</t>
+          <t>16,93; 29,15</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>11,17; 17,06</t>
+          <t>11,0; 17,6</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>8,15; 14,95</t>
+          <t>8,22; 14,39</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">

--- a/data/trans_dic/P15B_3_R-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P15B_3_R-Habitat-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -729,17 +729,17 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>8,79; 48,36</t>
+          <t>8,47; 46,34</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 68,73</t>
+          <t>0,0; 67,63</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 85,68</t>
+          <t>0,0; 84,11</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -754,7 +754,7 @@
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 69,92</t>
+          <t>0,0; 66,81</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -764,22 +764,22 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 88,83</t>
+          <t>0,0; 87,5</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>6,44; 35,47</t>
+          <t>6,51; 35,79</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 48,01</t>
+          <t>0,0; 47,7</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 54,59</t>
+          <t>0,0; 55,5</t>
         </is>
       </c>
     </row>
@@ -864,22 +864,22 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>16,52; 60,96</t>
+          <t>18,37; 61,45</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>13,7; 41,61</t>
+          <t>13,88; 41,26</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>2,96; 26,18</t>
+          <t>2,94; 25,94</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>14,54; 51,27</t>
+          <t>14,67; 51,73</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -889,37 +889,37 @@
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 19,49</t>
+          <t>0,0; 18,08</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 12,92</t>
+          <t>0,0; 13,18</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>2,26; 14,65</t>
+          <t>2,58; 15,47</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>9,71; 38,55</t>
+          <t>9,47; 40,94</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>8,67; 23,25</t>
+          <t>8,89; 24,68</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>2,53; 14,74</t>
+          <t>2,59; 15,07</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>9,79; 31,9</t>
+          <t>10,2; 31,44</t>
         </is>
       </c>
     </row>
@@ -1004,32 +1004,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>21,7; 52,68</t>
+          <t>20,15; 50,81</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>11,85; 30,98</t>
+          <t>12,25; 30,74</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>11,12; 32,54</t>
+          <t>10,57; 30,8</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>13,39; 35,89</t>
+          <t>12,67; 36,71</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 25,62</t>
+          <t>0,0; 24,98</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>1,3; 10,42</t>
+          <t>1,29; 11,65</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
@@ -1039,27 +1039,27 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>2,0; 19,41</t>
+          <t>2,12; 20,78</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>14,01; 35,05</t>
+          <t>13,71; 34,68</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>7,84; 18,43</t>
+          <t>8,26; 18,71</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>5,51; 17,33</t>
+          <t>5,56; 17,59</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>9,63; 24,34</t>
+          <t>9,48; 24,38</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>24,58; 64,68</t>
+          <t>25,97; 65,94</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>14,24; 36,63</t>
+          <t>14,59; 36,35</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>5,65; 31,73</t>
+          <t>5,56; 33,09</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>9,79; 42,99</t>
+          <t>9,73; 42,55</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>11,82; 48,45</t>
+          <t>11,75; 49,11</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>3,43; 22,08</t>
+          <t>3,02; 22,51</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>6,06; 33,12</t>
+          <t>6,14; 33,4</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>0,96; 10,84</t>
+          <t>0,91; 9,48</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>22,3; 49,06</t>
+          <t>23,32; 51,12</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>10,46; 24,43</t>
+          <t>10,2; 24,79</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>8,87; 28,38</t>
+          <t>8,61; 28,95</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>5,4; 20,66</t>
+          <t>4,93; 20,36</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1284,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>2,67; 23,39</t>
+          <t>2,64; 24,28</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>11,67; 29,14</t>
+          <t>11,63; 28,11</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>5,06; 21,79</t>
+          <t>4,82; 21,89</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>9,52; 32,29</t>
+          <t>9,24; 31,7</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 22,34</t>
+          <t>0,0; 22,87</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 9,86</t>
+          <t>0,0; 10,24</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>4,76; 20,09</t>
+          <t>3,29; 20,13</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>5,58; 19,18</t>
+          <t>5,45; 19,63</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>2,96; 17,34</t>
+          <t>2,95; 16,44</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>7,01; 17,5</t>
+          <t>7,2; 17,99</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>6,22; 17,42</t>
+          <t>5,64; 17,35</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>8,31; 20,73</t>
+          <t>8,93; 20,88</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1424,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>23,37; 40,62</t>
+          <t>24,28; 42,1</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>16,64; 26,65</t>
+          <t>17,04; 26,7</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>10,24; 20,6</t>
+          <t>10,14; 20,34</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>17,13; 30,42</t>
+          <t>17,64; 31,44</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>5,08; 17,85</t>
+          <t>4,76; 18,12</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>2,9; 9,61</t>
+          <t>2,74; 9,02</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>4,5; 12,28</t>
+          <t>4,23; 11,91</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>4,71; 12,0</t>
+          <t>4,81; 11,94</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>16,93; 29,15</t>
+          <t>17,34; 28,92</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>11,0; 17,6</t>
+          <t>11,15; 17,12</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>8,22; 14,39</t>
+          <t>8,42; 15,08</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>11,46; 19,48</t>
+          <t>11,97; 19,43</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P15B_3_R-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P15B_3_R-Habitat-trans_dic.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N16"/>
+  <dimension ref="A1:N14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -646,7 +646,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>&lt;2.000hab</t>
+          <t>&lt;10.000 hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -656,22 +656,22 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>74,52%</t>
+          <t>44,65%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>24,11%</t>
+          <t>25,3%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>17,98%</t>
+          <t>12,42%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>47,18%</t>
+          <t>31,8%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -681,37 +681,37 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,21%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>16,93%</t>
+          <t>5,8%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,92%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>45,33%</t>
+          <t>26,32%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>17,58%</t>
+          <t>15,84%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>17,42%</t>
+          <t>8,78%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>20,87%</t>
+          <t>19,1%</t>
         </is>
       </c>
     </row>
@@ -724,69 +724,69 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 100,0</t>
+          <t>25,72; 68,37</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>8,47; 46,34</t>
+          <t>16,24; 38,59</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 67,63</t>
+          <t>4,92; 25,32</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 84,11</t>
+          <t>17,28; 51,64</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0; 44,41</t>
+          <t>0; 11,15</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0; 30,57</t>
+          <t>0,0; 16,17</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 66,81</t>
+          <t>1,67; 15,87</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0; 10,53</t>
+          <t>2,3; 13,34</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 87,5</t>
+          <t>13,18; 42,79</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>6,51; 35,79</t>
+          <t>9,82; 23,77</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 47,7</t>
+          <t>4,32; 16,47</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 55,5</t>
+          <t>11,61; 31,22</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2-10.000 hab</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -796,62 +796,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>37,99%</t>
+          <t>35,15%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>25,74%</t>
+          <t>20,34%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>11,52%</t>
+          <t>19,19%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>29,17%</t>
+          <t>22,82%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
+          <t>7,22%</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>4,2%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>5,87%</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>4,15%</t>
-        </is>
-      </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>6,91%</t>
+          <t>7,36%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>22,24%</t>
+          <t>23,61%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>15,42%</t>
+          <t>12,61%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>7,44%</t>
+          <t>10,64%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>18,34%</t>
+          <t>15,65%</t>
         </is>
       </c>
     </row>
@@ -864,69 +864,69 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>18,37; 61,45</t>
+          <t>20,15; 50,81</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>13,88; 41,26</t>
+          <t>12,25; 30,74</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>2,94; 25,94</t>
+          <t>10,57; 30,8</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>14,67; 51,73</t>
+          <t>12,16; 36,8</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0; 13,49</t>
+          <t>0,0; 24,98</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 18,08</t>
+          <t>1,29; 11,65</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 13,18</t>
+          <t>0; 4,25</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>2,58; 15,47</t>
+          <t>2,08; 18,32</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>9,47; 40,94</t>
+          <t>13,71; 34,68</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>8,89; 24,68</t>
+          <t>8,26; 18,71</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>2,59; 15,07</t>
+          <t>5,56; 17,59</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>10,2; 31,44</t>
+          <t>9,2; 24,12</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10-50.000 hab</t>
+          <t>&gt;50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -936,62 +936,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>35,15%</t>
+          <t>44,97%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>20,34%</t>
+          <t>24,0%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>19,19%</t>
+          <t>16,55%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>23,23%</t>
+          <t>23,62%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>7,22%</t>
+          <t>26,09%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>4,2%</t>
+          <t>9,31%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>16,16%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>8,0%</t>
+          <t>3,66%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>23,61%</t>
+          <t>35,47%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>12,61%</t>
+          <t>16,74%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>10,64%</t>
+          <t>16,37%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>15,83%</t>
+          <t>11,62%</t>
         </is>
       </c>
     </row>
@@ -1004,69 +1004,69 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>20,15; 50,81</t>
+          <t>25,97; 65,94</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>12,25; 30,74</t>
+          <t>14,59; 36,35</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>10,57; 30,8</t>
+          <t>5,56; 33,09</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>12,67; 36,71</t>
+          <t>9,99; 42,39</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 24,98</t>
+          <t>11,75; 49,11</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>1,29; 11,65</t>
+          <t>3,02; 22,51</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0; 4,25</t>
+          <t>6,14; 33,4</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>2,12; 20,78</t>
+          <t>1,04; 9,46</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>13,71; 34,68</t>
+          <t>23,32; 51,12</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>8,26; 18,71</t>
+          <t>10,2; 24,79</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>5,56; 17,59</t>
+          <t>8,61; 28,95</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>9,48; 24,38</t>
+          <t>5,17; 20,89</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>&gt;50.000hab</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1076,62 +1076,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>44,97%</t>
+          <t>10,62%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>24,0%</t>
+          <t>18,94%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>16,55%</t>
+          <t>11,39%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>23,86%</t>
+          <t>17,35%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>26,09%</t>
+          <t>4,3%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>9,31%</t>
+          <t>3,19%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>16,16%</t>
+          <t>9,89%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>3,42%</t>
+          <t>10,7%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>35,47%</t>
+          <t>8,01%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>16,74%</t>
+          <t>11,9%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>16,37%</t>
+          <t>10,63%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>11,24%</t>
+          <t>13,76%</t>
         </is>
       </c>
     </row>
@@ -1144,69 +1144,69 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>25,97; 65,94</t>
+          <t>2,64; 24,28</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>14,59; 36,35</t>
+          <t>11,63; 28,11</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>5,56; 33,09</t>
+          <t>4,82; 21,89</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>9,73; 42,55</t>
+          <t>8,78; 30,52</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>11,75; 49,11</t>
+          <t>0,0; 22,87</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>3,02; 22,51</t>
+          <t>0,0; 10,24</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>6,14; 33,4</t>
+          <t>3,29; 20,13</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>0,91; 9,48</t>
+          <t>5,53; 19,64</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>23,32; 51,12</t>
+          <t>2,95; 16,44</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>10,2; 24,79</t>
+          <t>7,2; 17,99</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>8,61; 28,95</t>
+          <t>5,64; 17,35</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>4,93; 20,36</t>
+          <t>8,76; 20,43</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1216,62 +1216,62 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>10,62%</t>
+          <t>32,09%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>18,94%</t>
+          <t>21,67%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>11,39%</t>
+          <t>14,94%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>18,28%</t>
+          <t>23,35%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>4,3%</t>
+          <t>10,11%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>3,19%</t>
+          <t>5,26%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>9,89%</t>
+          <t>7,37%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>10,58%</t>
+          <t>7,38%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>8,01%</t>
+          <t>22,58%</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>11,9%</t>
+          <t>13,95%</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>10,63%</t>
+          <t>11,22%</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>14,02%</t>
+          <t>15,08%</t>
         </is>
       </c>
     </row>
@@ -1284,214 +1284,74 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>2,64; 24,28</t>
+          <t>24,28; 42,1</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>11,63; 28,11</t>
+          <t>17,04; 26,7</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>4,82; 21,89</t>
+          <t>10,14; 20,34</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>9,24; 31,7</t>
+          <t>17,31; 30,94</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 22,87</t>
+          <t>4,76; 18,12</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 10,24</t>
+          <t>2,74; 9,02</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>3,29; 20,13</t>
+          <t>4,23; 11,91</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>5,45; 19,63</t>
+          <t>4,73; 11,58</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>2,95; 16,44</t>
+          <t>17,34; 28,92</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>7,2; 17,99</t>
+          <t>11,15; 17,12</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>5,64; 17,35</t>
+          <t>8,42; 15,08</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>8,93; 20,88</t>
+          <t>11,85; 19,44</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B14" s="3" t="inlineStr">
-        <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>32,09%</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>21,67%</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>14,94%</t>
-        </is>
-      </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>23,74%</t>
-        </is>
-      </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>10,11%</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>5,26%</t>
-        </is>
-      </c>
-      <c r="I14" s="2" t="inlineStr">
-        <is>
-          <t>7,37%</t>
-        </is>
-      </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>7,44%</t>
-        </is>
-      </c>
-      <c r="K14" s="2" t="inlineStr">
-        <is>
-          <t>22,58%</t>
-        </is>
-      </c>
-      <c r="L14" s="2" t="inlineStr">
-        <is>
-          <t>13,95%</t>
-        </is>
-      </c>
-      <c r="M14" s="2" t="inlineStr">
-        <is>
-          <t>11,22%</t>
-        </is>
-      </c>
-      <c r="N14" s="2" t="inlineStr">
-        <is>
-          <t>15,06%</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n"/>
-      <c r="B15" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>24,28; 42,1</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>17,04; 26,7</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>10,14; 20,34</t>
-        </is>
-      </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>17,64; 31,44</t>
-        </is>
-      </c>
-      <c r="G15" s="2" t="inlineStr">
-        <is>
-          <t>4,76; 18,12</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>2,74; 9,02</t>
-        </is>
-      </c>
-      <c r="I15" s="2" t="inlineStr">
-        <is>
-          <t>4,23; 11,91</t>
-        </is>
-      </c>
-      <c r="J15" s="2" t="inlineStr">
-        <is>
-          <t>4,81; 11,94</t>
-        </is>
-      </c>
-      <c r="K15" s="2" t="inlineStr">
-        <is>
-          <t>17,34; 28,92</t>
-        </is>
-      </c>
-      <c r="L15" s="2" t="inlineStr">
-        <is>
-          <t>11,15; 17,12</t>
-        </is>
-      </c>
-      <c r="M15" s="2" t="inlineStr">
-        <is>
-          <t>8,42; 15,08</t>
-        </is>
-      </c>
-      <c r="N15" s="2" t="inlineStr">
-        <is>
-          <t>11,97; 19,43</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
+      <c r="A14" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
@@ -1501,7 +1361,6 @@
     <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="K1:N1"/>
-    <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/trans_dic/P15B_3_R-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P15B_3_R-Habitat-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -724,22 +725,22 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>25,72; 68,37</t>
+          <t>22,77; 66,41</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>16,24; 38,59</t>
+          <t>14,91; 37,71</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>4,92; 25,32</t>
+          <t>4,84; 24,76</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>17,28; 51,64</t>
+          <t>18,19; 50,22</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -749,37 +750,37 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 16,17</t>
+          <t>0,0; 16,15</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>1,67; 15,87</t>
+          <t>1,73; 15,86</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>2,3; 13,34</t>
+          <t>2,22; 12,69</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>13,18; 42,79</t>
+          <t>13,45; 42,43</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>9,82; 23,77</t>
+          <t>9,71; 24,02</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>4,32; 16,47</t>
+          <t>3,39; 15,74</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>11,61; 31,22</t>
+          <t>11,26; 30,89</t>
         </is>
       </c>
     </row>
@@ -864,32 +865,32 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>20,15; 50,81</t>
+          <t>21,47; 51,9</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>12,25; 30,74</t>
+          <t>12,75; 30,76</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>10,57; 30,8</t>
+          <t>10,07; 30,67</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>12,16; 36,8</t>
+          <t>11,58; 34,46</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 24,98</t>
+          <t>0,0; 22,09</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>1,29; 11,65</t>
+          <t>1,28; 11,94</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
@@ -899,27 +900,27 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>2,08; 18,32</t>
+          <t>2,31; 19,45</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>13,71; 34,68</t>
+          <t>14,25; 36,15</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>8,26; 18,71</t>
+          <t>7,77; 18,58</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>5,56; 17,59</t>
+          <t>5,58; 18,05</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>9,2; 24,12</t>
+          <t>9,52; 23,98</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1005,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>25,97; 65,94</t>
+          <t>24,61; 66,45</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>14,59; 36,35</t>
+          <t>15,03; 35,98</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>5,56; 33,09</t>
+          <t>5,89; 34,54</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>9,99; 42,39</t>
+          <t>9,94; 44,5</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>11,75; 49,11</t>
+          <t>11,95; 46,49</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>3,02; 22,51</t>
+          <t>3,43; 22,63</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>6,14; 33,4</t>
+          <t>6,2; 33,41</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>1,04; 9,46</t>
+          <t>1,05; 9,79</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>23,32; 51,12</t>
+          <t>23,47; 51,58</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>10,2; 24,79</t>
+          <t>10,99; 24,77</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>8,61; 28,95</t>
+          <t>8,56; 27,36</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>5,17; 20,89</t>
+          <t>5,46; 21,01</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1145,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>2,64; 24,28</t>
+          <t>2,66; 23,05</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>11,63; 28,11</t>
+          <t>11,56; 26,98</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>4,82; 21,89</t>
+          <t>4,92; 21,65</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>8,78; 30,52</t>
+          <t>8,59; 31,65</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 22,87</t>
+          <t>0,0; 18,49</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 10,24</t>
+          <t>0,0; 9,75</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>3,29; 20,13</t>
+          <t>4,71; 20,08</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>5,53; 19,64</t>
+          <t>5,58; 19,55</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>2,95; 16,44</t>
+          <t>3,03; 16,69</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>7,2; 17,99</t>
+          <t>7,09; 18,33</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>5,64; 17,35</t>
+          <t>6,29; 16,9</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>8,76; 20,43</t>
+          <t>8,58; 21,13</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1285,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>24,28; 42,1</t>
+          <t>24,11; 41,52</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>17,04; 26,7</t>
+          <t>17,25; 27,12</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>10,14; 20,34</t>
+          <t>10,22; 20,48</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>17,31; 30,94</t>
+          <t>16,87; 30,55</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>4,76; 18,12</t>
+          <t>5,29; 18,96</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>2,74; 9,02</t>
+          <t>2,72; 9,26</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>4,23; 11,91</t>
+          <t>4,25; 11,95</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>4,73; 11,58</t>
+          <t>4,72; 11,74</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>17,34; 28,92</t>
+          <t>17,09; 29,47</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>11,15; 17,12</t>
+          <t>11,11; 17,44</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>8,42; 15,08</t>
+          <t>8,15; 14,55</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>11,85; 19,44</t>
+          <t>12,08; 19,7</t>
         </is>
       </c>
     </row>
@@ -1364,4 +1365,1212 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que ha tenido un accidente en el trabajo en el último año</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>&lt;10.000 hab</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>10171</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>14932</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>4936</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>14270</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>2733</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>2823</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>2561</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>10171</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>17665</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>7759</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>16831</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>5187; 15129</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>8802; 22257</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>1925; 9842</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>8164; 22541</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>0; 1768</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>0; 8477</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>841; 7721</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>960; 5486</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>5198; 16400</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>10826; 26779</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>2999; 13921</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>9925; 27220</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>10-50.000 hab</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>15037</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>16534</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>11602</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>15092</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>2176</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>3134</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>4214</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>17213</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>19668</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>11602</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>19306</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>9184; 22201</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>10366; 25005</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>6091; 18547</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>7655; 22787</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>0; 6658</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>958; 8912</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>0; 2064</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>1323; 11134</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>10388; 26356</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>12111; 28976</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>6081; 19691</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>11744; 29586</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>&gt;50.000 hab</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>10706</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>14019</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>6069</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>6906</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>6292</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>5309</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>5100</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>1613</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>16998</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>19328</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>11169</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>8519</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>5859; 15818</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>8780; 21017</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>2160; 12665</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>2907; 13010</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>2882; 11210</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>1956; 12909</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>1955; 10543</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>465; 4317</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>11248; 24719</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>12688; 28600</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>5842; 18668</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>4002; 15407</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Capitales</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>3579</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>16711</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>6935</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>10219</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>1020</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>2270</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>6195</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>7383</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>4599</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>18981</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>13130</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>17603</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>898; 7769</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>10200; 23810</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>2993; 13184</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>5056; 18639</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>0; 4380</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>0; 6949</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>2946; 12571</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>3852; 13493</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>1740; 9579</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>11303; 29245</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>7768; 20878</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>10972; 27032</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>62</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>41</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>47</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>73</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>63</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>39493</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>62196</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>29542</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>46487</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>9488</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>13446</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>14118</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>15772</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>48980</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>75642</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>43660</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>62259</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>29670; 51103</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>49496; 77841</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>20213; 40504</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>33598; 60830</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>4963; 17783</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>6941; 23649</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>8146; 22882</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>10073; 25071</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>37066; 63918</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>60244; 94567</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>31716; 56626</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>49842; 81321</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>